--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value981.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value981.xlsx
@@ -348,16 +348,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.7858875693305813</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value981.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value981.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.7263558506965637</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.027143597602844</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.9339823126792908</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.249042749404907</v>
       </c>
       <c r="E1">
-        <v>0.7858875693305813</v>
+        <v>1.614280343055725</v>
       </c>
     </row>
   </sheetData>
